--- a/Data/SummaryData/Damages_ByCountry.xlsx
+++ b/Data/SummaryData/Damages_ByCountry.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/rc/lab/C/CMIG/ccallahan/Variability_Economics/Replication/Data/SummaryData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A0D0F923-D124-8A4A-8AE9-F78658A0B855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690E3B63-DEA0-7B40-B4D8-BBDCFD520536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="2" r:id="rId1"/>
@@ -1028,7 +1028,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1863,10 +1863,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1938,11 +1938,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2023,7 +2023,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -2069,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -2103,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -2126,7 +2126,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -2143,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -2183,7 +2183,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -2206,7 +2206,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -2229,7 +2229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -2269,7 +2269,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -2280,7 +2280,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
@@ -2297,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -2314,7 +2314,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -2337,7 +2337,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
@@ -2360,7 +2360,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
@@ -2377,7 +2377,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
@@ -2400,7 +2400,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>256</v>
       </c>
       <c r="C24" t="s">
         <v>51</v>
@@ -2423,7 +2423,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
@@ -2446,7 +2446,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
@@ -2469,7 +2469,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>276</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
@@ -2480,7 +2480,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
@@ -2503,7 +2503,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
@@ -2526,7 +2526,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -2549,7 +2549,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
         <v>65</v>
@@ -2572,7 +2572,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>67</v>
@@ -2595,7 +2595,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>69</v>
@@ -2618,7 +2618,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
@@ -2641,7 +2641,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
         <v>73</v>
@@ -2658,7 +2658,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
         <v>75</v>
@@ -2675,7 +2675,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
         <v>77</v>
@@ -2692,7 +2692,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
         <v>79</v>
@@ -2709,7 +2709,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
         <v>81</v>
@@ -2726,7 +2726,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
         <v>83</v>
@@ -2743,7 +2743,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -2760,7 +2760,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
         <v>87</v>
@@ -2777,7 +2777,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>89</v>
@@ -2794,7 +2794,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
         <v>91</v>
@@ -2817,7 +2817,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
         <v>93</v>
@@ -2834,7 +2834,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
         <v>95</v>
@@ -2851,7 +2851,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>268</v>
       </c>
       <c r="C47" t="s">
         <v>97</v>
@@ -2874,7 +2874,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
         <v>99</v>
@@ -2891,7 +2891,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
         <v>101</v>
@@ -2914,7 +2914,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
         <v>103</v>
@@ -2931,7 +2931,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
         <v>105</v>
@@ -2948,7 +2948,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
         <v>107</v>
@@ -2971,7 +2971,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="C53" t="s">
         <v>109</v>
@@ -2988,7 +2988,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
         <v>111</v>
@@ -3005,7 +3005,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
         <v>113</v>
@@ -3028,7 +3028,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
         <v>115</v>
@@ -3051,7 +3051,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
         <v>117</v>
@@ -3062,7 +3062,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
         <v>119</v>
@@ -3079,7 +3079,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
         <v>121</v>
@@ -3096,7 +3096,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
         <v>123</v>
@@ -3119,7 +3119,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
         <v>125</v>
@@ -3142,7 +3142,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="C62" t="s">
         <v>127</v>
@@ -3153,7 +3153,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
         <v>129</v>
@@ -3176,7 +3176,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
         <v>131</v>
@@ -3193,7 +3193,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C65" t="s">
         <v>133</v>
@@ -3210,7 +3210,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C66" t="s">
         <v>135</v>
@@ -3227,7 +3227,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>320</v>
       </c>
       <c r="C67" t="s">
         <v>137</v>
@@ -3250,7 +3250,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C68" t="s">
         <v>139</v>
@@ -3273,7 +3273,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
         <v>141</v>
@@ -3290,7 +3290,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C70" t="s">
         <v>143</v>
@@ -3313,7 +3313,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C71" t="s">
         <v>145</v>
@@ -3336,7 +3336,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
         <v>147</v>
@@ -3353,7 +3353,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
         <v>149</v>
@@ -3370,7 +3370,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C74" t="s">
         <v>151</v>
@@ -3393,7 +3393,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
         <v>153</v>
@@ -3416,7 +3416,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C76" t="s">
         <v>155</v>
@@ -3439,7 +3439,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
         <v>157</v>
@@ -3456,7 +3456,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C78" t="s">
         <v>159</v>
@@ -3479,7 +3479,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C79" t="s">
         <v>161</v>
@@ -3496,7 +3496,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
         <v>163</v>
@@ -3519,7 +3519,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C81" t="s">
         <v>165</v>
@@ -3542,7 +3542,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C82" t="s">
         <v>167</v>
@@ -3553,7 +3553,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
         <v>169</v>
@@ -3576,7 +3576,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
         <v>171</v>
@@ -3593,7 +3593,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
         <v>173</v>
@@ -3616,7 +3616,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C86" t="s">
         <v>175</v>
@@ -3633,7 +3633,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
         <v>177</v>
@@ -3650,7 +3650,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="C88" t="s">
         <v>179</v>
@@ -3673,7 +3673,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
         <v>181</v>
@@ -3690,7 +3690,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C90" t="s">
         <v>183</v>
@@ -3713,7 +3713,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C91" t="s">
         <v>185</v>
@@ -3730,7 +3730,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C92" t="s">
         <v>187</v>
@@ -3741,7 +3741,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
         <v>189</v>
@@ -3764,7 +3764,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="C94" t="s">
         <v>191</v>
@@ -3781,7 +3781,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C95" t="s">
         <v>193</v>
@@ -3804,7 +3804,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C96" t="s">
         <v>195</v>
@@ -3827,7 +3827,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C97" t="s">
         <v>197</v>
@@ -3844,7 +3844,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C98" t="s">
         <v>199</v>
@@ -3867,7 +3867,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s">
         <v>201</v>
@@ -3890,7 +3890,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C100" t="s">
         <v>203</v>
@@ -3901,7 +3901,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="C101" t="s">
         <v>205</v>
@@ -3918,7 +3918,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C102" t="s">
         <v>207</v>
@@ -3941,7 +3941,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C103" t="s">
         <v>209</v>
@@ -3964,7 +3964,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C104" t="s">
         <v>211</v>
@@ -3987,7 +3987,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C105" t="s">
         <v>213</v>
@@ -4010,7 +4010,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="C106" t="s">
         <v>215</v>
@@ -4033,7 +4033,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C107" t="s">
         <v>217</v>
@@ -4056,7 +4056,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C108" t="s">
         <v>219</v>
@@ -4079,7 +4079,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C109" t="s">
         <v>221</v>
@@ -4102,7 +4102,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C110" t="s">
         <v>223</v>
@@ -4125,7 +4125,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C111" t="s">
         <v>225</v>
@@ -4142,7 +4142,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C112" t="s">
         <v>227</v>
@@ -4165,7 +4165,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C113" t="s">
         <v>229</v>
@@ -4188,7 +4188,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="C114" t="s">
         <v>231</v>
@@ -4205,7 +4205,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C115" t="s">
         <v>233</v>
@@ -4228,7 +4228,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C116" t="s">
         <v>235</v>
@@ -4245,7 +4245,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C117" t="s">
         <v>237</v>
@@ -4268,7 +4268,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C118" t="s">
         <v>239</v>
@@ -4291,7 +4291,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C119" t="s">
         <v>241</v>
@@ -4308,7 +4308,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C120" t="s">
         <v>243</v>
@@ -4336,7 +4336,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C122" t="s">
         <v>247</v>
@@ -4359,7 +4359,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="C123" t="s">
         <v>249</v>
@@ -4382,7 +4382,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="C124" t="s">
         <v>251</v>
@@ -4393,7 +4393,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C125" t="s">
         <v>253</v>
@@ -4410,7 +4410,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C126" t="s">
         <v>255</v>
@@ -4427,7 +4427,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C127" t="s">
         <v>257</v>
@@ -4444,7 +4444,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C128" t="s">
         <v>259</v>
@@ -4467,7 +4467,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C129" t="s">
         <v>261</v>
@@ -4490,7 +4490,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C130" t="s">
         <v>263</v>
@@ -4513,7 +4513,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C131" t="s">
         <v>265</v>
@@ -4536,7 +4536,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
         <v>267</v>
@@ -4547,7 +4547,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C133" t="s">
         <v>269</v>
@@ -4564,7 +4564,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="C134" t="s">
         <v>271</v>
@@ -4581,7 +4581,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C135" t="s">
         <v>273</v>
@@ -4598,7 +4598,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="C136" t="s">
         <v>275</v>
@@ -4615,7 +4615,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="C137" t="s">
         <v>277</v>
@@ -4638,7 +4638,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>168</v>
       </c>
       <c r="C138" t="s">
         <v>279</v>
@@ -4655,7 +4655,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C139" t="s">
         <v>281</v>
@@ -4672,7 +4672,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C140" t="s">
         <v>283</v>
@@ -4689,7 +4689,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="C141" t="s">
         <v>285</v>
@@ -4712,7 +4712,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C142" t="s">
         <v>287</v>
@@ -4729,7 +4729,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>288</v>
+        <v>60</v>
       </c>
       <c r="C143" t="s">
         <v>289</v>
@@ -4752,7 +4752,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C144" t="s">
         <v>291</v>
@@ -4769,7 +4769,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C145" t="s">
         <v>293</v>
@@ -4792,7 +4792,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C146" t="s">
         <v>295</v>
@@ -4809,7 +4809,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C147" t="s">
         <v>297</v>
@@ -4826,7 +4826,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C148" t="s">
         <v>299</v>
@@ -4849,7 +4849,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C149" t="s">
         <v>301</v>
@@ -4866,7 +4866,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C150" t="s">
         <v>303</v>
@@ -4889,7 +4889,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C151" t="s">
         <v>305</v>
@@ -4912,7 +4912,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C152" t="s">
         <v>307</v>
@@ -4929,7 +4929,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C153" t="s">
         <v>309</v>
@@ -4952,7 +4952,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C154" t="s">
         <v>311</v>
@@ -4975,7 +4975,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C155" t="s">
         <v>313</v>
@@ -4992,7 +4992,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C156" t="s">
         <v>315</v>
@@ -5015,7 +5015,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C157" t="s">
         <v>317</v>
@@ -5038,7 +5038,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C158" t="s">
         <v>319</v>
@@ -5055,7 +5055,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>320</v>
+        <v>252</v>
       </c>
       <c r="C159" t="s">
         <v>321</v>
@@ -5078,7 +5078,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C160" t="s">
         <v>323</v>
@@ -5101,7 +5101,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C161" t="s">
         <v>325</v>
